--- a/projects/test_building/input/Relation_HeatingTechnology_EnergyCarrier.xlsx
+++ b/projects/test_building/input/Relation_HeatingTechnology_EnergyCarrier.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yus\Documents\code\3E\RENDER\data\input\building\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/RenderNew/projects/test_building/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1CAFFE-A766-AD4C-8692-77156CA7CA17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17400"/>
+    <workbookView xWindow="9260" yWindow="2600" windowWidth="20720" windowHeight="12520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -85,11 +86,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:B30" totalsRowShown="0">
-  <autoFilter ref="A1:B30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:B30" totalsRowShown="0">
+  <autoFilter ref="A1:B30" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="id_heating_technology"/>
-    <tableColumn id="2" name="id_energy_carrier"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id_heating_technology"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="id_energy_carrier"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -357,20 +358,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -378,7 +379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>11</v>
       </c>
@@ -386,7 +387,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>21</v>
       </c>
@@ -394,7 +395,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>22</v>
       </c>
@@ -402,7 +403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>23</v>
       </c>
@@ -410,7 +411,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>24</v>
       </c>
@@ -418,7 +419,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>25</v>
       </c>
@@ -426,7 +427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>26</v>
       </c>
@@ -434,7 +435,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>27</v>
       </c>
@@ -442,7 +443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>28</v>
       </c>
@@ -450,7 +451,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>29</v>
       </c>
@@ -458,7 +459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>29</v>
       </c>
@@ -466,7 +467,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>210</v>
       </c>
@@ -474,7 +475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>210</v>
       </c>
@@ -482,7 +483,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>211</v>
       </c>
@@ -490,7 +491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>211</v>
       </c>
@@ -498,7 +499,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>212</v>
       </c>
@@ -506,7 +507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>213</v>
       </c>
@@ -514,7 +515,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>31</v>
       </c>
@@ -522,7 +523,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>32</v>
       </c>
@@ -530,7 +531,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>33</v>
       </c>
@@ -538,7 +539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>33</v>
       </c>
@@ -546,7 +547,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>34</v>
       </c>
@@ -554,7 +555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>41</v>
       </c>
@@ -562,7 +563,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>42</v>
       </c>
@@ -570,7 +571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>43</v>
       </c>
@@ -578,7 +579,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>44</v>
       </c>
@@ -586,7 +587,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>45</v>
       </c>
@@ -594,7 +595,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>46</v>
       </c>
@@ -602,7 +603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>50</v>
       </c>

--- a/projects/test_building/input/Relation_HeatingTechnology_EnergyCarrier.xlsx
+++ b/projects/test_building/input/Relation_HeatingTechnology_EnergyCarrier.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/RenderNew/projects/test_building/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1CAFFE-A766-AD4C-8692-77156CA7CA17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799526FD-B697-814A-8997-22AC17AC7CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9260" yWindow="2600" windowWidth="20720" windowHeight="12520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38820" yWindow="-18440" windowWidth="30240" windowHeight="17420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -362,7 +362,7 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
